--- a/biology/Zoologie/Diplomys/Diplomys.xlsx
+++ b/biology/Zoologie/Diplomys/Diplomys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplomys est un genre de rongeurs de la famille des Echimyidés. Ce genre comprend des espèces localisées en Amérique du Sud.
-Ce genre, décrit pour la première fois en 1916 par le zoologiste britannique Michael Rogers Oldfield Thomas, a fait l'objet d'une révision en 2005 par Louise Emmons qui ne retient que deux espèces D. caniceps et D. labilis[1]..
+Ce genre, décrit pour la première fois en 1916 par le zoologiste britannique Michael Rogers Oldfield Thomas, a fait l'objet d'une révision en 2005 par Louise Emmons qui ne retient que deux espèces D. caniceps et D. labilis..
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (28 mai 2010)[2] et Mammal Species of the World (version 3, 2005)  (28 mai 2010)[3] :
-Diplomys caniceps (Günther, 1877) - Rat épineux à tête grise[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (28 mai 2010) et Mammal Species of the World (version 3, 2005)  (28 mai 2010) :
+Diplomys caniceps (Günther, 1877) - Rat épineux à tête grise
 Diplomys labilis (Bangs, 1901)
-Diplomys rufodorsalis (J. A. Allen, 1899) - Déplacé dans le genre monotypique Santamartamys Emmons, 2005[5]</t>
+Diplomys rufodorsalis (J. A. Allen, 1899) - Déplacé dans le genre monotypique Santamartamys Emmons, 2005</t>
         </is>
       </c>
     </row>
